--- a/angular/src/assets/sampleFiles/business/OrderPlanDealerSellFormatFile.xlsx
+++ b/angular/src/assets/sampleFiles/business/OrderPlanDealerSellFormatFile.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Web\angular\src\assets\sampleFiles\business\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\sales-web\tmss-ssa-sales-web\angular\src\assets\sampleFiles\business\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054E847E-11BB-4A99-88E0-A9C49F27F4C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="SalesOrderPlanDealerSalesPlan" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="19">
   <si>
     <t>Dealer</t>
   </si>
@@ -56,9 +55,6 @@
   </si>
   <si>
     <t>FV</t>
-  </si>
-  <si>
-    <t>Import Package</t>
   </si>
   <si>
     <t>DS2</t>
@@ -126,7 +122,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm\-dd\-yyyy"/>
   </numFmts>
@@ -187,22 +183,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -496,26 +486,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="11" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="18" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="11" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -528,14 +517,11 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -545,19 +531,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="4"/>
-    <col min="4" max="4" width="14.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="3"/>
+    <col min="4" max="4" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -574,7 +560,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -582,178 +568,178 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5">
-        <v>10</v>
-      </c>
-      <c r="D2" s="5">
-        <v>10</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="C2" s="4">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4">
+        <v>10</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4">
+        <v>10</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4">
+        <v>10</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4">
+        <v>10</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4">
+        <v>10</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4">
+        <v>10</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4">
+        <v>10</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="5">
-        <v>10</v>
-      </c>
-      <c r="D3" s="5">
-        <v>10</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="5">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5">
-        <v>10</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5">
-        <v>10</v>
-      </c>
-      <c r="D5" s="5">
-        <v>10</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="5">
-        <v>10</v>
-      </c>
-      <c r="D6" s="5">
-        <v>10</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="5">
-        <v>10</v>
-      </c>
-      <c r="D7" s="5">
-        <v>10</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="5">
-        <v>10</v>
-      </c>
-      <c r="D8" s="5">
-        <v>10</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="5">
-        <v>10</v>
-      </c>
-      <c r="D9" s="5">
-        <v>10</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
